--- a/Support data/IEA vs EXIOBASE electricity error check.xlsx
+++ b/Support data/IEA vs EXIOBASE electricity error check.xlsx
@@ -1,27 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\GreenTechs\Support data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7536339F-BE34-4ED4-A314-EF33EC118940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>Values in EJ</t>
+  </si>
+  <si>
+    <t>IEA balances</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>EXIOBASE: "Energy Carrier Supply: Total"</t>
+  </si>
+  <si>
+    <t>Relative errors on totals</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,14 +118,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +413,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
+      </c>
+      <c r="K1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>11.51</v>
+      </c>
+      <c r="D2">
+        <v>12.42</v>
+      </c>
+      <c r="E2">
+        <v>13.56</v>
+      </c>
+      <c r="F2">
+        <v>14.58</v>
+      </c>
+      <c r="G2">
+        <v>14.98</v>
+      </c>
+      <c r="H2">
+        <v>16.04</v>
+      </c>
+      <c r="I2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J2">
+        <v>18.68</v>
+      </c>
+      <c r="K2">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>11.94</v>
+      </c>
+      <c r="D3">
+        <v>12.1</v>
+      </c>
+      <c r="E3">
+        <v>12.06</v>
+      </c>
+      <c r="F3">
+        <v>11.94</v>
+      </c>
+      <c r="G3">
+        <v>12.04</v>
+      </c>
+      <c r="H3">
+        <v>12.07</v>
+      </c>
+      <c r="I3">
+        <v>12.19</v>
+      </c>
+      <c r="J3">
+        <v>12.25</v>
+      </c>
+      <c r="K3">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>28.92</v>
+      </c>
+      <c r="D4">
+        <v>29.77</v>
+      </c>
+      <c r="E4">
+        <v>30.64</v>
+      </c>
+      <c r="F4">
+        <v>31.51</v>
+      </c>
+      <c r="G4">
+        <v>32.4</v>
+      </c>
+      <c r="H4">
+        <v>33.44</v>
+      </c>
+      <c r="I4">
+        <v>34.19</v>
+      </c>
+      <c r="J4">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="K4">
+        <v>35.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>14.44</v>
+      </c>
+      <c r="D5">
+        <v>14.21</v>
+      </c>
+      <c r="E5">
+        <v>14.32</v>
+      </c>
+      <c r="F5">
+        <v>14.43</v>
+      </c>
+      <c r="G5">
+        <v>14.32</v>
+      </c>
+      <c r="H5">
+        <v>14.34</v>
+      </c>
+      <c r="I5">
+        <v>14.25</v>
+      </c>
+      <c r="J5">
+        <v>14.84</v>
+      </c>
+      <c r="K5">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM(C2:C5)</f>
+        <v>66.81</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:K6" si="0">SUM(D2:D5)</f>
+        <v>68.5</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>70.580000000000013</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>72.460000000000008</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>73.740000000000009</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>75.89</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>78.03</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>80.930000000000007</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>82.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>16.47</v>
+      </c>
+      <c r="D7">
+        <v>17.71</v>
+      </c>
+      <c r="E7">
+        <v>19.27</v>
+      </c>
+      <c r="F7">
+        <v>20.04</v>
+      </c>
+      <c r="G7">
+        <v>20.64</v>
+      </c>
+      <c r="H7">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="I7">
+        <v>14.54</v>
+      </c>
+      <c r="J7">
+        <v>22.09</v>
+      </c>
+      <c r="K7">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D8">
+        <v>9.01</v>
+      </c>
+      <c r="E8">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="F8">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G8">
+        <v>8.94</v>
+      </c>
+      <c r="H8">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I8">
+        <v>8.75</v>
+      </c>
+      <c r="J8">
+        <v>9.93</v>
+      </c>
+      <c r="K8">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>29.26</v>
+      </c>
+      <c r="D9">
+        <v>30.03</v>
+      </c>
+      <c r="E9">
+        <v>30.71</v>
+      </c>
+      <c r="F9">
+        <v>31.57</v>
+      </c>
+      <c r="G9">
+        <v>32.08</v>
+      </c>
+      <c r="H9">
+        <v>30.82</v>
+      </c>
+      <c r="I9">
+        <v>34.39</v>
+      </c>
+      <c r="J9">
+        <v>35.97</v>
+      </c>
+      <c r="K9">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>14.42</v>
+      </c>
+      <c r="D10">
+        <v>14.16</v>
+      </c>
+      <c r="E10">
+        <v>14.28</v>
+      </c>
+      <c r="F10">
+        <v>14.39</v>
+      </c>
+      <c r="G10">
+        <v>14.29</v>
+      </c>
+      <c r="H10">
+        <v>13.14</v>
+      </c>
+      <c r="I10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J10">
+        <v>17.09</v>
+      </c>
+      <c r="K10">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C7:C10)</f>
+        <v>69.11</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11" si="1">SUM(D7:D10)</f>
+        <v>70.91</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11" si="2">SUM(E7:E10)</f>
+        <v>73.3</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11" si="3">SUM(F7:F10)</f>
+        <v>74.88</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11" si="4">SUM(G7:G10)</f>
+        <v>75.949999999999989</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11" si="5">SUM(H7:H10)</f>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ref="I11" si="6">SUM(I7:I10)</f>
+        <v>73.78</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11" si="7">SUM(J7:J10)</f>
+        <v>85.08</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11" si="8">SUM(K7:K10)</f>
+        <v>78.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
+        <f>C11/C6-1</f>
+        <v>3.4425984134111687E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" ref="D12:K12" si="9">D11/D6-1</f>
+        <v>3.5182481751824701E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="9"/>
+        <v>3.8537829413431313E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="9"/>
+        <v>3.3397736682307277E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="9"/>
+        <v>2.9970165446161934E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="9"/>
+        <v>-7.893003030702328E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="9"/>
+        <v>-5.4466230936819127E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="9"/>
+        <v>5.1278882985295926E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="9"/>
+        <v>-3.7669145434597096E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>